--- a/xlsx/哈佛商学院_intext.xlsx
+++ b/xlsx/哈佛商学院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t>哈佛商学院</t>
   </si>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>劍橋 (麻薩諸塞州)</t>
+    <t>剑桥 (麻萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%C2%B7%E5%8D%A1%E6%99%AE%E8%98%AD</t>
   </si>
   <si>
-    <t>羅伯·卡普蘭</t>
+    <t>罗伯·卡普兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E8%AE%A1%E5%AD%A6</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%A1%A1%E8%A8%88%E5%88%86%E5%8D%A1</t>
   </si>
   <si>
-    <t>平衡計分卡</t>
+    <t>平衡计分卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87%E8%A1%8C%E4%B8%BA%E5%AD%A6</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B5%B7%E5%85%8B%E7%89%B9%C2%B7%E9%BA%A5%E5%85%8B%E9%98%BF%E7%91%9F</t>
   </si>
   <si>
-    <t>約翰·海克特·麥克阿瑟</t>
+    <t>约翰·海克特·麦克阿瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%A2%E9%95%B7</t>
   </si>
   <si>
-    <t>院長</t>
+    <t>院长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7C%C2%B7%E9%BB%98%E9%A1%BF</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%B3%A2%E7%89%B9</t>
   </si>
   <si>
-    <t>麥可·波特</t>
+    <t>麦可·波特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MBA</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%C2%B7%E5%BD%AD%E5%8D%9A</t>
   </si>
   <si>
-    <t>邁克·彭博</t>
+    <t>迈克·彭博</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VisiCalc</t>
@@ -179,25 +179,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>美國航空</t>
+    <t>美国航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E5%B0%8F%E8%98%AD</t>
   </si>
   <si>
-    <t>趙小蘭</t>
+    <t>赵小兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8B%9E%E5%B7%A5%E9%83%A8</t>
   </si>
   <si>
-    <t>美國勞工部</t>
+    <t>美国劳工部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U.S._Securities_and_Exchange_Commission</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>通用電氣</t>
+    <t>通用电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E5%B1%80%E4%B8%BB%E5%B8%AD</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E5%9F%B7%E8%A1%8C%E5%AE%98</t>
   </si>
   <si>
-    <t>首席執行官</t>
+    <t>首席执行官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Donald_Trump</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E6%BD%94%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>寶潔公司</t>
+    <t>宝洁公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E9%94%A6%E6%9D%BE</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4%E5%A4%A9%E5%AE%89%E9%96%80%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>1989年天安門事件</t>
+    <t>1989年天安门事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alberta</t>
@@ -353,19 +350,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%89%B9%C2%B7%E7%BE%85%E5%A7%86%E5%B0%BC</t>
   </si>
   <si>
-    <t>米特·羅姆尼</t>
+    <t>米特·罗姆尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%9F%B3%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>黑石集團</t>
+    <t>黑石集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%9A%86%E5%85%AC%E5%8F%B8</t>
@@ -377,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E5%9C%B0%E5%8F%AF</t>
   </si>
   <si>
-    <t>滿地可</t>
+    <t>满地可</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>通用汽車公司</t>
+    <t>通用汽车公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%B8%AD</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Fortune_500</t>
@@ -443,31 +440,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%B0%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>香港新民黨</t>
+    <t>香港新民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%AB%8B%E6%B3%95%E6%9C%83</t>
   </si>
   <si>
-    <t>香港立法會</t>
+    <t>香港立法会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%8D%80%E5%85%A8%E5%9C%8B%E4%BA%BA%E5%A4%A7%E4%BB%A3%E8%A1%A8</t>
   </si>
   <si>
-    <t>港區全國人大代表</t>
+    <t>港区全国人大代表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%83%E7%81%A3%E5%8D%80%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>荃灣區議會</t>
+    <t>荃湾区议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E6%A9%AB%E4%BA%8C%E5%8D%83%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>縱橫二千集團</t>
+    <t>纵横二千集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
@@ -479,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-哈佛大學</t>
+    <t>Template talk-哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%93%88%E4%BD%9B</t>
   </si>
   <si>
-    <t>約翰·哈佛</t>
+    <t>约翰·哈佛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%A0%A1%E8%91%A3%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%88%A9%E5%A5%A7%C2%B7%E5%BC%97%E5%80%AB%E5%85%8B</t>
   </si>
   <si>
-    <t>胡利奧·弗倫克</t>
+    <t>胡利奥·弗伦克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jeffrey_S._Flier</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛學院</t>
+    <t>哈佛学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%96%87%E7%90%86%E7%A0%94%E7%A9%B6%E7%94%9F%E9%99%A2</t>
@@ -599,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8%E9%80%B2%E4%BF%AE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛大學進修學院</t>
+    <t>哈佛大学进修学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%9A%91%E6%9C%9F%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛暑期學院</t>
+    <t>哈佛暑期学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harvard_Extension_School</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%89%99%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛牙醫學院</t>
+    <t>哈佛牙医学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harvard_T.H._Chan_School_of_Public_Health</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B-%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E9%86%AB%E7%99%82%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛-麻省理工醫療科技學院</t>
+    <t>哈佛-麻省理工医疗科技学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adams_House_(Harvard_University)</t>
@@ -767,31 +764,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈佛燕京圖書館</t>
+    <t>哈佛燕京图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%BE%B7%E7%B4%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>懷德納圖書館</t>
+    <t>怀德纳图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%A0%BC%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>福格藝術博物館</t>
+    <t>福格艺术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈佛藝術博物館</t>
+    <t>哈佛艺术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈佛自然史博物館</t>
+    <t>哈佛自然史博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E6%AD%A3%E6%B8%85%E4%B8%AD%E5%9C%8B%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>費正清中國研究中心</t>
+    <t>费正清中国研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%AD%A6%E7%A4%BE</t>
@@ -893,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全美大學體育協會</t>
+    <t>全美大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E6%A5%AD%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>哈佛商業評論</t>
+    <t>哈佛商业评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%B3%95%E5%BE%8B%E8%AF%84%E8%AE%BA</t>
@@ -2124,7 +2121,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -2150,10 +2147,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2179,10 +2176,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2208,10 +2205,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2237,10 +2234,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2266,10 +2263,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2295,10 +2292,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>10</v>
@@ -2324,10 +2321,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2353,10 +2350,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2382,10 +2379,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2411,10 +2408,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2440,10 +2437,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2469,10 +2466,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2498,10 +2495,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2527,10 +2524,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2556,10 +2553,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2585,10 +2582,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2614,10 +2611,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2643,10 +2640,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2672,10 +2669,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2701,10 +2698,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2730,10 +2727,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2759,10 +2756,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2788,10 +2785,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2817,10 +2814,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2846,10 +2843,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2875,10 +2872,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2904,10 +2901,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2933,10 +2930,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2962,10 +2959,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2991,10 +2988,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3020,10 +3017,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3049,10 +3046,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3078,10 +3075,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -3107,10 +3104,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3136,10 +3133,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3165,10 +3162,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3194,10 +3191,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3223,10 +3220,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3252,10 +3249,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3281,10 +3278,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3310,10 +3307,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3339,10 +3336,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3368,10 +3365,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3397,10 +3394,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3426,10 +3423,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3455,10 +3452,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3484,10 +3481,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>8</v>
@@ -3513,10 +3510,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>6</v>
@@ -3542,10 +3539,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -3571,10 +3568,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3600,10 +3597,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3629,10 +3626,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3658,10 +3655,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3687,10 +3684,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3716,10 +3713,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3745,10 +3742,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3774,10 +3771,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3803,10 +3800,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3832,10 +3829,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3861,10 +3858,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3890,10 +3887,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3919,10 +3916,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3948,10 +3945,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3977,10 +3974,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4006,10 +4003,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4035,10 +4032,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4064,10 +4061,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4093,10 +4090,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4122,10 +4119,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4151,10 +4148,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4180,10 +4177,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4209,10 +4206,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4238,10 +4235,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4267,10 +4264,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4296,10 +4293,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4325,10 +4322,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4354,10 +4351,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4383,10 +4380,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4412,10 +4409,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4441,10 +4438,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4470,10 +4467,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4499,10 +4496,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4528,10 +4525,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4557,10 +4554,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4586,10 +4583,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4615,10 +4612,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4644,10 +4641,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4673,10 +4670,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4702,10 +4699,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4731,10 +4728,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4760,10 +4757,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4789,10 +4786,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4818,10 +4815,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4847,10 +4844,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4876,10 +4873,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4905,10 +4902,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4934,10 +4931,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4963,10 +4960,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4992,10 +4989,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5021,10 +5018,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5050,10 +5047,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5079,10 +5076,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5108,10 +5105,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5137,10 +5134,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5166,10 +5163,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5195,10 +5192,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5224,10 +5221,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5253,10 +5250,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5282,10 +5279,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5311,10 +5308,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5340,10 +5337,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5369,10 +5366,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5398,10 +5395,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5427,10 +5424,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5456,10 +5453,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5485,10 +5482,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5514,10 +5511,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -5543,10 +5540,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5572,10 +5569,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5601,10 +5598,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5630,10 +5627,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>158</v>
+      </c>
+      <c r="F150" t="s">
         <v>159</v>
-      </c>
-      <c r="F150" t="s">
-        <v>160</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5659,10 +5656,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5688,10 +5685,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5717,10 +5714,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5746,10 +5743,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5775,10 +5772,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5804,10 +5801,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
